--- a/examples/tlf_structure.xlsx
+++ b/examples/tlf_structure.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="tables" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="variables" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="groups_items_contents" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="categories_items_contents" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">groups</t>
+    <t xml:space="preserve">categories</t>
   </si>
   <si>
     <t xml:space="preserve">items</t>
@@ -274,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,10 +295,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,10 +304,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,19 +311,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,19 +323,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,7 +350,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
@@ -434,7 +410,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -447,21 +423,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="15.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="5" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="15.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -469,68 +445,53 @@
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
     </row>
     <row r="5" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
@@ -545,10 +506,6 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -572,41 +529,41 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="9.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16381" min="10" style="12" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16381" min="10" style="7" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -676,11 +633,11 @@
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -699,25 +656,25 @@
       </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="15"/>
-      <c r="B999" s="15"/>
-      <c r="C999" s="15"/>
-      <c r="D999" s="15"/>
-      <c r="E999" s="15"/>
-      <c r="F999" s="15"/>
-    </row>
-    <row r="1000" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="11"/>
+      <c r="B999" s="11"/>
+      <c r="C999" s="11"/>
+      <c r="D999" s="11"/>
+      <c r="E999" s="11"/>
+      <c r="F999" s="11"/>
+    </row>
+    <row r="1000" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
       <c r="D1000" s="2"/>
       <c r="E1000" s="2"/>
       <c r="F1000" s="2"/>
-      <c r="G1000" s="11"/>
-      <c r="H1000" s="16"/>
-      <c r="I1000" s="16"/>
-      <c r="XFC1000" s="0"/>
-      <c r="XFD1000" s="0"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="4"/>
+      <c r="I1000" s="4"/>
+      <c r="XFC1000" s="4"/>
+      <c r="XFD1000" s="4"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -738,7 +695,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
@@ -746,144 +703,144 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="11.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="12" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="7" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>53</v>
       </c>
     </row>
